--- a/biology/Botanique/Potentille_d'Angleterre/Potentille_d'Angleterre.xlsx
+++ b/biology/Botanique/Potentille_d'Angleterre/Potentille_d'Angleterre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Potentille_d%27Angleterre</t>
+          <t>Potentille_d'Angleterre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potentille anglaise
 La Potentille anglaise (Potentilla anglica) est une espèce de plantes à fleurs de la famille des Rosacées.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Potentille_d%27Angleterre</t>
+          <t>Potentille_d'Angleterre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée vivace d'une hauteur de 10 à 20 cm. Les fleurs solitaires, portées chacune par un mince pédoncule, mesurent de 10 à 15 mm de diamètre environ, sont formées de 4 pétales jaunes (parfois 5), de 4 sépales et 4 divisions du calicule habituellement. Les feuilles de la base pétiolées, à 5 folioles dentées, forment une rosette persistante[1], tandis que les feuilles caulinaires trifoliolées, ont des pétioles de plus en plus courts. À partir de la rosette se développent des tiges rampantes stolonifères, parfois plusieurs fois bifurquées, ne s'enracinant au niveau de l'insertion des feuilles (nœuds) que vers leur extrémité et pouvant atteindre 50 cm de long[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace d'une hauteur de 10 à 20 cm. Les fleurs solitaires, portées chacune par un mince pédoncule, mesurent de 10 à 15 mm de diamètre environ, sont formées de 4 pétales jaunes (parfois 5), de 4 sépales et 4 divisions du calicule habituellement. Les feuilles de la base pétiolées, à 5 folioles dentées, forment une rosette persistante, tandis que les feuilles caulinaires trifoliolées, ont des pétioles de plus en plus courts. À partir de la rosette se développent des tiges rampantes stolonifères, parfois plusieurs fois bifurquées, ne s'enracinant au niveau de l'insertion des feuilles (nœuds) que vers leur extrémité et pouvant atteindre 50 cm de long.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Potentille_d%27Angleterre</t>
+          <t>Potentille_d'Angleterre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouest et centre de l'Europe.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Potentille_d%27Angleterre</t>
+          <t>Potentille_d'Angleterre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses, bords des chemins, bois clairs, endroits humides ; préfère les sols acides.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Potentille_d%27Angleterre</t>
+          <t>Potentille_d'Angleterre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Hybridation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La potentille anglaise forme communément des hybrides toujours stériles avec Potentilla reptans ou Potentilla erecta. Ils sont difficiles à identifier[3]. Pour distinguer ces hybrides de leurs parents, vérifier si ces derniers forment des carpelles renflés (fertiles).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La potentille anglaise forme communément des hybrides toujours stériles avec Potentilla reptans ou Potentilla erecta. Ils sont difficiles à identifier. Pour distinguer ces hybrides de leurs parents, vérifier si ces derniers forment des carpelles renflés (fertiles).
 </t>
         </is>
       </c>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Potentille_d%27Angleterre</t>
+          <t>Potentille_d'Angleterre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Basse-Normandie. Elle figure sur la liste rouge des plantes d'Île de France et sur celle du Nord-Pas-de-Calais.
 </t>
